--- a/report/result.xlsx
+++ b/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,9 @@
     <t>msg</t>
   </si>
   <si>
+    <t>checkuser</t>
+  </si>
+  <si>
     <t>t_001</t>
   </si>
   <si>
@@ -65,7 +68,7 @@
     <t>用户令牌正常_视频不存在</t>
   </si>
   <si>
-    <t>存在</t>
+    <t>杨盼</t>
   </si>
   <si>
     <t>https://api.9dcj.com.cn/Api/video/v1/detail</t>
@@ -80,21 +83,24 @@
     <t>200</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>t_002</t>
+  </si>
+  <si>
+    <t>用户令牌失效_视频存在</t>
+  </si>
+  <si>
+    <t>{"code":401,"msg":"未授权","result":"用户未登录"}</t>
+  </si>
+  <si>
+    <t>{"accesstoken":"wht1-token-a72564d84aa7b5f119e0b107e5c66b3a","videoId":"500142"}</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>t_002</t>
-  </si>
-  <si>
-    <t>用户令牌失效_视频存在</t>
-  </si>
-  <si>
-    <t>{"code":401,"msg":"未授权","result":"用户未登录"}</t>
-  </si>
-  <si>
-    <t>{"accesstoken":"wht1-token-a72564d84aa7b5f119e0b107e5c66b3a","videoId":"500142"}</t>
-  </si>
-  <si>
     <t>t_003</t>
   </si>
   <si>
@@ -102,9 +108,6 @@
   </si>
   <si>
     <t>{"accesstoken":"wht1-token-428037d6e589126de4e9c54c20962c3","videoId":"2024"}</t>
-  </si>
-  <si>
-    <t>0.004797</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,95 +491,116 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.474304</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.004886</v>
+      </c>
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.005534</v>
+      </c>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
